--- a/pprpo/newton.xlsx
+++ b/pprpo/newton.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -31,16 +31,22 @@
   <si>
     <t>e</t>
   </si>
+  <si>
+    <t>sin(x) - cos(x)^2 + 0.25</t>
+  </si>
+  <si>
+    <t>cos(x) + 2 * sin(x) * cos(x)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,6 +54,142 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -58,142 +200,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -204,6 +210,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -216,13 +342,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,109 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,43 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,35 +404,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,15 +460,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -495,153 +468,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,7 +977,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -1186,18 +1192,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="5" width="13.6"/>
+    <col min="9" max="10" width="13.6"/>
+    <col min="11" max="11" width="12.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1213,16 +1221,37 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1242,164 +1271,342 @@
         <f>ABS(B3-B2)</f>
         <v>0.161781590095293</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">H2-(I3/J3)</f>
+        <v>-3.39406300072995</v>
+      </c>
+      <c r="I3">
+        <f>SIN(H2)-COS(H2)^2+0.25</f>
+        <v>-0.883397566534325</v>
+      </c>
+      <c r="J3">
+        <f>COS(H2)+2*SIN(H2)*COS(H2)</f>
+        <v>-0.368995120957542</v>
+      </c>
+      <c r="K3">
+        <f>ABS(H3-H2)</f>
+        <v>2.39406300072995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B11" si="0">B3-(C4/D4)</f>
+        <f t="shared" ref="B4:B11" si="1">B3-(C4/D4)</f>
         <v>-0.824241868225874</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C11" si="1">B3^2-COS(B3)</f>
+        <f t="shared" ref="C4:C11" si="2">B3^2-COS(B3)</f>
         <v>0.0338216880409485</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D11" si="2">2*B3+SIN(B3)</f>
+        <f t="shared" ref="D4:D11" si="3">2*B3+SIN(B3)</f>
         <v>-2.41988961347797</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="3">ABS(B4-B3)</f>
+        <f t="shared" ref="E4:E11" si="4">ABS(B4-B3)</f>
         <v>0.0139765416788324</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-3.69557030168313</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I11" si="5">SIN(H3)-COS(H3)^2+0.25</f>
+        <v>-0.43780483077287</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J11" si="6">COS(H3)+2*SIN(H3)*COS(H3)</f>
+        <v>-1.45205382884195</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K11" si="7">ABS(H4-H3)</f>
+        <v>0.301507300953181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.824132319050929</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.000261002757627304</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.38251687205569</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.000109549174945434</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-3.66530023613989</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>0.0528281154073402</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>-1.74522633034492</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>0.0302700655432466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.824132312302522</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.60762114731483e-8</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.38222337296082</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.74840638925644e-9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-3.66519143089577</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>0.000188462127536204</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>-1.73210518541194</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>0.000108805244117605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.824132312302522</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.38222335488053</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-3.66519142918809</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>2.95778601611119e-9</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>-1.73205080842272</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>1.70767844309694e-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.824132312302522</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>-2.38222335488053</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-3.66519142918809</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>2.22044604925031e-16</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>-1.73205080756888</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
+        <v>-0.824132312302522</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
         <v>-2.38222335488053</v>
       </c>
-      <c r="E8">
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-3.66519142918809</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>2.22044604925031e-16</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>-1.73205080756888</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>-0.824132312302522</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
-        <f t="shared" si="0"/>
+        <v>-2.38222335488053</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-3.66519142918809</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>2.22044604925031e-16</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>-1.73205080756888</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <f t="shared" si="1"/>
         <v>-0.824132312302522</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C11">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
         <v>-2.38222335488053</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>-0.824132312302522</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>-2.38222335488053</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>-0.824132312302522</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>-2.38222335488053</v>
-      </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-3.66519142918809</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>2.22044604925031e-16</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>-1.73205080756888</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
